--- a/charge_salaire_madoumier.xlsx
+++ b/charge_salaire_madoumier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbimo\GeLo\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbimo\GeLo\geloapp2024\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B7E6B-69A3-4A2B-BCD7-1F087C22509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A1DD31-AA93-49DD-9D68-A02F6B182DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="765" windowWidth="17280" windowHeight="8880" xr2:uid="{6B706444-5D86-4BD3-A32B-FFA99067863A}"/>
+    <workbookView xWindow="-28920" yWindow="-3225" windowWidth="29040" windowHeight="15720" xr2:uid="{6B706444-5D86-4BD3-A32B-FFA99067863A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>electricite</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E1DC9F-904C-4D14-B485-2E18FE9382E4}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -733,6 +733,132 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>281</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
